--- a/biology/Zoologie/Aporrectodea_longa/Aporrectodea_longa.xlsx
+++ b/biology/Zoologie/Aporrectodea_longa/Aporrectodea_longa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lombric à tête noire
-Aporrectodea longa, le Lombric à tête noire[1], est une espèce de vers de terre de la famille des Lumbricidae appartenant au groupe des anéciques et présente sur la quasi-totalité de la planète.
+Aporrectodea longa, le Lombric à tête noire, est une espèce de vers de terre de la famille des Lumbricidae appartenant au groupe des anéciques et présente sur la quasi-totalité de la planète.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lombric à tête noire est un ver de terre brunâtre, gris foncé à l'avant, plus clair à l'arrière. Son anneau de fécondation, le clitellum, est jaune sale. Son corps cylindrique est allongé, peu effilé à l'avant et aplati à l'arrière[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lombric à tête noire est un ver de terre brunâtre, gris foncé à l'avant, plus clair à l'arrière. Son anneau de fécondation, le clitellum, est jaune sale. Son corps cylindrique est allongé, peu effilé à l'avant et aplati à l'arrière.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lombric à tête noire est une espèce anécique se rencontrant principalement dans les sols de grandes cultures et de prairies à faible teneur en matière organique dont le taux est inférieur ou égal à 4 %[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lombric à tête noire est une espèce anécique se rencontrant principalement dans les sols de grandes cultures et de prairies à faible teneur en matière organique dont le taux est inférieur ou égal à 4 %.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce nomade originaire de la côte atlantique, elle est largement répandue dans les régions tempérées de l'hémisphère Nord, c'est-à-dire des écozones paléarctique et néarctique. Elle est introduite en Amérique du Sud, en Afrique, en Asie, en Australie et en Nouvelle-Zélande[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce nomade originaire de la côte atlantique, elle est largement répandue dans les régions tempérées de l'hémisphère Nord, c'est-à-dire des écozones paléarctique et néarctique. Elle est introduite en Amérique du Sud, en Afrique, en Asie, en Australie et en Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -605,11 +623,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aporrectodea longa a été décrite pour la première fois en 1885 par le zoologiste allemand Hermann Ude (de) (1860-1941) sous le protonyme Allolobophora longa[4],[2].
-Synonymie
-Aporrectodea longa a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aporrectodea longa a été décrite pour la première fois en 1885 par le zoologiste allemand Hermann Ude (de) (1860-1941) sous le protonyme Allolobophora longa,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aporrectodea_longa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aporrectodea_longa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aporrectodea longa a pour synonymes :
 Allolobophora lactea Friend, 1892
 Allolobophora longa Ude, 1885
 Helodrilus (Allolobophora) longus (Ude, 1885)
